--- a/test_data/case_data.xlsx
+++ b/test_data/case_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>用例编号</t>
   </si>
@@ -28,36 +28,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确添加产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_02</t>
-  </si>
-  <si>
-    <t>产品名称为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品类别为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_03</t>
-  </si>
-  <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add_product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,7 +48,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'name': 'api产品7846', 'functionParams': '功能参数', 'price': 1000, 'remark': '产品备注', 'typeIds': [1, 2, 3, 4, 5, 6, 7, 8], 'imgPath': [{'name': '38acfc8085c249628beffed54bccb2c7', 'url': 'http://file.chinaylzl.com/test/userHead/2018/11/16/38acfc8085c249628beffed54bccb2c7.png'}, {'name': '38acfc8085c249628beffed54bccb2c7', 'url': 'http://file.chinaylzl.com/test/userHead/2018/11/16/38acfc8085c249628beffed54bccb2c7.png'}, {'name': '38acfc8085c249628beffed54bccb2c7', 'url': 'http://file.chinaylzl.com/test/userHead/2018/11/16/38acfc8085c249628beffed54bccb2c7.png'}]}</t>
+    <t>add_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_user_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确添加人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -501,10 +487,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -516,76 +502,52 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5"/>
+    <row r="3" spans="1:7" ht="21" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1">
+    <row r="5" spans="1:7" ht="27" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -593,24 +555,6 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test_data/case_data.xlsx
+++ b/test_data/case_data.xlsx
@@ -1,78 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cater" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>模块名称</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
   <si>
     <t>用例编号</t>
   </si>
   <si>
-    <t>用例说明</t>
+    <t>用例名称</t>
   </si>
   <si>
     <t>请求参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
+  <si>
+    <t>人员管理</t>
+  </si>
+  <si>
+    <t>add_user</t>
+  </si>
+  <si>
+    <t>add_user_01</t>
+  </si>
+  <si>
+    <t>正确添加人员</t>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1}</t>
   </si>
   <si>
     <t>添加成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_user_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确添加人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确添加人员，身份证号不存在</t>
+  </si>
+  <si>
+    <t>add_user_02</t>
+  </si>
+  <si>
+    <t>错误添加人员</t>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 2}</t>
+  </si>
+  <si>
+    <t>添加的身份证号已存在</t>
+  </si>
+  <si>
+    <t>add_user—</t>
+  </si>
+  <si>
+    <t>add_user_03</t>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 3}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,30 +100,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +264,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -141,43 +474,334 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,131 +1086,167 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.75" customWidth="1"/>
+    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="255.62962962963" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="22.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="28.5" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+    <row r="5" ht="27" customHeight="1" spans="1:7">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test_data/case_data.xlsx
+++ b/test_data/case_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>模块名称</t>
   </si>
@@ -42,16 +42,60 @@
     <t>人员管理</t>
   </si>
   <si>
+    <t>get_user_by_id_card</t>
+  </si>
+  <si>
+    <t>查询_01</t>
+  </si>
+  <si>
+    <t>查询身份证是否存在</t>
+  </si>
+  <si>
+    <t>{"idcard": "711557195407039393"}</t>
+  </si>
+  <si>
+    <t>操作异常:用户重复</t>
+  </si>
+  <si>
+    <t>1.输入身份证号，判断
+2.身份证号存在，不能添加</t>
+  </si>
+  <si>
+    <t>查询_02</t>
+  </si>
+  <si>
+    <t>{"idcard": "711557197907049239"}</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>1.输入身份证号，判断
+2.年龄小于60岁的身份证，可添加</t>
+  </si>
+  <si>
+    <t>查询_03</t>
+  </si>
+  <si>
+    <t>{"idcard": "711557195407044619"}</t>
+  </si>
+  <si>
+    <t>1.输入身份证号，判断 
+2.身份证号不存在，可添加</t>
+  </si>
+  <si>
     <t>add_user</t>
   </si>
   <si>
-    <t>add_user_01</t>
-  </si>
-  <si>
-    <t>正确添加人员</t>
-  </si>
-  <si>
-    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1}</t>
+    <t>添加人员_01</t>
+  </si>
+  <si>
+    <t>添加人员</t>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", 
+"homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", 
+"otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1}</t>
   </si>
   <si>
     <t>添加成功</t>
@@ -60,25 +104,23 @@
     <t>正确添加人员，身份证号不存在</t>
   </si>
   <si>
-    <t>add_user_02</t>
-  </si>
-  <si>
-    <t>错误添加人员</t>
-  </si>
-  <si>
-    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 2}</t>
+    <t>添加人员_02</t>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", 
+"homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", 
+"otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 2}</t>
   </si>
   <si>
     <t>添加的身份证号已存在</t>
   </si>
   <si>
-    <t>add_user—</t>
-  </si>
-  <si>
-    <t>add_user_03</t>
-  </si>
-  <si>
-    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 3}</t>
+    <t>添加人员_03</t>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540703", "eatCount": 0, "handleWay": "", 
+"homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407039393", "isArea": 1, "mealId": 135, "name": "api070317", 
+"otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 3}</t>
   </si>
 </sst>
 </file>
@@ -91,7 +133,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,9 +143,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,6 +179,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -131,13 +212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,15 +225,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,30 +243,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,53 +281,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +301,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,175 +355,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,9 +512,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,26 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,157 +627,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1092,21 +1124,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="255.62962962963" customWidth="1"/>
+    <col min="4" max="4" width="20.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="144.777777777778" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="22.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="28.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
@@ -1132,7 +1164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" spans="1:7">
+    <row r="2" ht="28.8" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1145,17 +1177,17 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="21" customHeight="1" spans="1:7">
+    <row r="3" ht="43.2" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1166,49 +1198,109 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="24" customHeight="1" spans="1:7">
+    <row r="4" ht="28.8" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
+    <row r="5" ht="43.2" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/case_data.xlsx
+++ b/test_data/case_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
   <si>
     <t>模块名称</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>人员管理</t>
-  </si>
-  <si>
-    <t>get_user_by_id_card</t>
-  </si>
-  <si>
-    <t>查询_01</t>
   </si>
   <si>
     <t>操作异常:用户重复</t>
@@ -55,24 +49,15 @@
 2.身份证号存在，不能添加</t>
   </si>
   <si>
-    <t>查询_02</t>
-  </si>
-  <si>
     <t>{"idcard": "711557197907049239"}</t>
   </si>
   <si>
     <t>操作成功</t>
   </si>
   <si>
-    <t>查询_03</t>
-  </si>
-  <si>
     <t>{"idcard": "711557195407044619"}</t>
   </si>
   <si>
-    <t>add_user</t>
-  </si>
-  <si>
     <t>添加人员_01</t>
   </si>
   <si>
@@ -83,103 +68,592 @@
   </si>
   <si>
     <t>身份证号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>身份证不存在小于60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>身份证存在大于60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.输入身份证号，判断
 2.年龄小于60岁，可添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.输入身份证号，判断 
 2.身份证号不存在，可添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"address": "测试现住地址","applicationCategory": 141,"auditState": 1,"birthday": "19790705","eatCount": 0,"handleWay": "","useYanglao": 1,"homeDelivery": 0,"homeDeliveryDetail": "","idCard": "711557197907051638","isArea": 1,"mealId": 135,"name": "api051638","otherCredentials": [],"permanentAddress": "测试户籍地址","phone": "15282566260","residenceAddress": "9001090202","userGoverBalance": {},"sex": "m"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>操作异常:年龄不能小于60岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.输入年龄小于60岁的身份证2.所有信息填写完整，提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>年龄小于60的人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人员已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540705", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "971513193501171959", "isArea": 1, "mealId": 135, "name": "api070514", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1, "userGoverBalance": {}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>操作异常:用户重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540705", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407055238", "isArea": 1, "mealId": "", "name": "api070514", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1, "userGoverBalance": {}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人员助餐点为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>操作异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>添加人员_04</t>
   </si>
   <si>
     <t>人员正确添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540705", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407056513", "isArea": 1, "mealId": "135", "name": "api070514", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1, "userGoverBalance": {}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.添加人员所有信息正确填写2.点击提交，添加成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.参数为已经存在的身份证号2.所有信息填写完整，点提交3.添加失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.添加人员所有信息正确填写2.助餐点字段未传值，点提交3.添加失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>添加成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"idcard": "711557195407056513"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userlist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getuserbyidcard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adduser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>根据姓名查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据性别查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据年龄段查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "测试人员","residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>{"name": "余额","residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据姓名模糊查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sex": "m","residenceAddress": "900109","pageNow": 2} # m:男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入已经添加的人员姓名   2.点击查询，结果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入已经姓名，模糊查询   2.点击查询，结果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sex": "f","residenceAddress": "900109","pageNow": 3} # f:女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择性别：男   2.点击查询，结果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择性别：女   2.点击查询，结果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>查询身份证是否存在_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询身份证是否存在_02</t>
+  </si>
+  <si>
+    <t>查询身份证是否存在_03</t>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>根据出生日期查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择性别：女   2.点击查询，结果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择出生日期  2.点击查询，果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>根据身份证号查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sex": "m","residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sex": "f","residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "startAge": 60, "endAge": 70,"residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "birthday": "1922-08-31","residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "idCard": "911650193608317520","residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入身份证号  2.点击查询，果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>根据补贴标准查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择补贴标准 2.点击查询，果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>根据审核状态：待审核查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据审核状态：通过查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>{"auditState": 1,"residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "isArea": 1, "applicationCategory": 142,"residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"auditState": 2,"residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"auditState": 3,"residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据审核状态：不通过查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择审核状态 2.点击查询，果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据服务机构查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择服务机构：全时综合食堂 2.点击查询，果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mealId": 135,"residenceAddress": "900109","pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询提交_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>所有条件组合查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.所有查询条件组合查询 2.点击查询，果显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "余额100配餐0", "sex": "f", "startAge": 60, "endAge": 100, "birthday": "1946-01-17", "idCard": "971513194601175767", "residenceAddress": "900109", "isArea": 0, "applicationCategory": 143, "auditState": 2, "mealId": 136, "homeDelivery": 1, "homeDeliveryDetail": 1, "pageNow": 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加人员_05</t>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540705", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557195407056513", "isArea": 1, "mealId": "135", "name": "api就餐人员1", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1, "userGoverBalance": {}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"address": "测试现住地址", "applicationCategory": 141, "auditState": 1, "birthday": "19540705", "eatCount": 0, "handleWay": "", "homeDelivery": 0, "homeDeliveryDetail": "", "idCard": "711557193107108933", "isArea": 1, "mealId": "135", "name": "api就餐人员2", "otherCredentials": [], "permanentAddress": "测试户籍地址", "phone": "15282566260", "residenceAddress": "90010902", "sex": "m", "useYanglao": 1, "userGoverBalance": {}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +662,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -237,21 +736,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,11 +752,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,223 +1062,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="144.75" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="25.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="144.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.5">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.5">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -796,7 +1666,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
